--- a/proy_examp/documetation/04_subsyscomp.xlsx
+++ b/proy_examp/documetation/04_subsyscomp.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Dropbox\academic\courses\iotproductdesign\proy_examp\documetation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Dropbox\academic\courses\iotproductdesign\material_public\proy_examp\documetation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D88BD5-45C1-413F-958D-46EABAA3D630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC1C84A-7DAB-4EE4-979F-8FCDA63964FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="7200" windowWidth="11925" windowHeight="7785" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
+    <sheet name="ALL" sheetId="1" r:id="rId1"/>
     <sheet name="PIC" sheetId="2" r:id="rId2"/>
     <sheet name="IMU" sheetId="3" r:id="rId3"/>
     <sheet name="Bluetooth" sheetId="4" r:id="rId4"/>
@@ -944,7 +944,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -5598,7 +5600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -5613,8 +5617,8 @@
     <col min="9" max="9" width="14.85546875" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="6.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
     <col min="14" max="14" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5651,7 +5655,7 @@
       <c r="L2" s="29"/>
       <c r="M2" s="30"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1">
+    <row r="3" spans="1:14" ht="26.25" customHeight="1">
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>2</v>
@@ -5687,7 +5691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1">
+    <row r="4" spans="1:14" ht="33.75" customHeight="1">
       <c r="B4" s="6" t="str">
         <f>HYPERLINK("http://www.microchip.com/wwwproducts/en/PIC32MX420F032H","PIC32MX420F032H")</f>
         <v>PIC32MX420F032H</v>
@@ -5727,7 +5731,7 @@
       </c>
       <c r="N4" s="11"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1">
+    <row r="5" spans="1:14" ht="30.75" customHeight="1">
       <c r="B5" s="12" t="str">
         <f>HYPERLINK("http://www.microchip.com/wwwproducts/Devices.aspx?product=PIC32MX210F016B","PIC32MX210F016B")</f>
         <v>PIC32MX210F016B</v>
@@ -28048,7 +28052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -32320,7 +32324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
